--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_2_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_2_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.86000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.213358496858094e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.265211424074252e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8681181715780015</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.5067894393174</v>
+        <v>41.14151352281606</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.20562108920965, 47.80795778942515]</t>
+          <t>[34.61512082869976, 47.66790621693235]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452734</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.691868716347658]</t>
+          <t>[1.452868674633116, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.13190345289606</v>
+        <v>50.47748036621294</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.03226469067079, 58.23154221512133]</t>
+          <t>[46.19110162265448, 54.76385910977141]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.86274274274308</v>
+        <v>18.51851851851887</v>
       </c>
       <c r="X2" t="n">
-        <v>18.16596596596629</v>
+        <v>17.81781781781815</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.55951951951987</v>
+        <v>19.21921921921959</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.42000000000038</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.213358496858094e-16</v>
+        <v>1.265211424074252e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.25897208667631</v>
+        <v>45.36690039303943</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.226415546505415, 55.2915286268472]</t>
+          <t>[36.78683212919346, 53.946968656885396]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9748685912040402</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8113422468730391, 1.1383949355350413]</t>
+          <t>[0.5597632555945768, 0.9371317425122712]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.512745649913995e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.512745649913995e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>56.7511851556777</v>
+        <v>54.82039780873326</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.495327123056725, 61.00704318829868]</t>
+          <t>[50.41379912093982, 59.2269964965267]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.63111111111143</v>
+        <v>21.43183183183215</v>
       </c>
       <c r="X3" t="n">
-        <v>19.99555555555586</v>
+        <v>20.70120120120151</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.266666666667</v>
+        <v>22.1624624624628</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_2_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_2_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.00000000000047</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.265211424074252e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8681181715780015</v>
-      </c>
+        <v>1.1842378929335e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.14151352281606</v>
+        <v>42.18273018320417</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.61512082869976, 47.66790621693235]</t>
+          <t>[36.07388349249345, 48.29157687391489]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 1.8050792624229643]</t>
+          <t>[1.3522370781217319, 1.679289766783734]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.47748036621294</v>
+        <v>53.18674543194075</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.19110162265448, 54.76385910977141]</t>
+          <t>[49.09569652313953, 57.27779434074197]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.51851851851887</v>
+        <v>18.71099099099131</v>
       </c>
       <c r="X2" t="n">
-        <v>17.81781781781815</v>
+        <v>18.06918918918949</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.21921921921959</v>
+        <v>19.35279279279312</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.33000000000036</v>
+        <v>24.12000000000033</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.265211424074252e-16</v>
+        <v>1.1842378929335e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.36690039303943</v>
+        <v>41.23565092989389</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.78683212919346, 53.946968656885396]</t>
+          <t>[33.74676618702136, 48.724535672766415]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.748447499053424</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5597632555945768, 0.9371317425122712]</t>
+          <t>[0.3459211130078854, 0.723289599925578]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.512745649913995e-13</v>
+        <v>7.886965924797096e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>3.512745649913995e-13</v>
+        <v>7.886965924797096e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>54.82039780873326</v>
+        <v>50.47381707469381</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.41379912093982, 59.2269964965267]</t>
+          <t>[46.5377865083306, 54.40984764105703]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.43183183183215</v>
+        <v>22.06774774774805</v>
       </c>
       <c r="X3" t="n">
-        <v>20.70120120120151</v>
+        <v>21.34342342342372</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.1624624624628</v>
+        <v>22.79207207207238</v>
       </c>
     </row>
   </sheetData>
